--- a/poc-professionnel/ig/StructureDefinition-DiplomeUniversitaire.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DiplomeUniversitaire.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T11:52:46+00:00</t>
+    <t>2025-07-21T14:08:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-DiplomeUniversitaire.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DiplomeUniversitaire.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T14:08:48+00:00</t>
+    <t>2025-07-22T15:23:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-DiplomeUniversitaire.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DiplomeUniversitaire.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T15:23:11+00:00</t>
+    <t>2025-07-23T06:24:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -238,7 +238,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> En France, un diplôme universitaire (DU) ou interuniversitaire (DIU) est un diplôme délivré par une université française, un grand établissement ou autre établissement public à caractère scientifique, culturel et professionnel, ou plusieurs établissements conjointement, contrairement aux diplômes nationaux qui sont délivrés au nom du ministère. Chaque ordre maintient une liste des DU reconnus.Dans le cadre du modèle, un diplôme universitaire est un type de diplôme. La classe DiplomeUniversitaire est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
+    <t>En France, un diplôme universitaire (DU) ou interuniversitaire (DIU) est un diplôme délivré par une université française, un grand établissement ou autre établissement public à caractère scientifique, culturel et professionnel, ou plusieurs établissements conjointement, contrairement aux diplômes nationaux qui sont délivrés au nom du ministère. Chaque ordre maintient une liste des DU reconnus.Dans le cadre du modèle, un diplôme universitaire est un type de diplôme. La classe DiplomeUniversitaire est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
   </si>
   <si>
     <t>Base</t>
@@ -254,7 +254,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Type de diplôme, par exemple:** DE : Diplôme d’Etat français** CES : Certificat d’Etudes Spéciales** DES : Diplôme d'Etudes Spécialisées** etc.</t>
+    <t>Type de diplôme, par exemple:** DE : Diplôme d’Etat français** CES : Certificat d’Etudes Spéciales** DES : Diplôme d'Etudes Spécialisées** etc.</t>
   </si>
   <si>
     <t>preferred</t>
@@ -269,7 +269,7 @@
     <t>DiplomeUniversitaire.lieuFormation</t>
   </si>
   <si>
-    <t xml:space="preserve"> Lieu de formation pour l'obtention du diplôme. Par exemple:** U37 : Université de Tours (Université François Rabelais)** UP5 : Université de Paris 05 (Université René Descartes).</t>
+    <t>Lieu de formation pour l'obtention du diplôme. Par exemple:** U37 : Université de Tours (Université François Rabelais)** UP5 : Université de Paris 05 (Université René Descartes).</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R16-LieuFormation?vs</t>
@@ -285,7 +285,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Date d’obtention du diplôme.</t>
+    <t>Date d’obtention du diplôme.</t>
   </si>
   <si>
     <t>Diplome.dateDiplome</t>
@@ -298,7 +298,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Numéro du diplôme.</t>
+    <t>Numéro du diplôme.</t>
   </si>
   <si>
     <t>Diplome.numeroDiplome</t>
@@ -307,7 +307,7 @@
     <t>DiplomeUniversitaire.diplomeUniversitaire</t>
   </si>
   <si>
-    <t xml:space="preserve"> Diplôme universitaire ou interuniversitaire.</t>
+    <t>Diplôme universitaire ou interuniversitaire.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R54-DiplomeUniversiteInterUniversitaire?vs</t>

--- a/poc-professionnel/ig/StructureDefinition-DiplomeUniversitaire.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DiplomeUniversitaire.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-23T06:24:09+00:00</t>
+    <t>2025-07-24T12:59:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-DiplomeUniversitaire.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DiplomeUniversitaire.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T12:59:21+00:00</t>
+    <t>2025-07-24T13:17:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-DiplomeUniversitaire.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DiplomeUniversitaire.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T13:17:05+00:00</t>
+    <t>2025-07-25T07:22:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -260,7 +260,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R14-TypeDiplome?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R14-TypeDiplome/FHIR/TRE-R14-TypeDiplome?vs</t>
   </si>
   <si>
     <t>Diplome.typeDiplome</t>
@@ -272,7 +272,7 @@
     <t>Lieu de formation pour l'obtention du diplôme. Par exemple:** U37 : Université de Tours (Université François Rabelais)** UP5 : Université de Paris 05 (Université René Descartes).</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R16-LieuFormation?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R16-LieuFormation/FHIR/TRE-R16-LieuFormation?vs</t>
   </si>
   <si>
     <t>Diplome.lieuFormation</t>
@@ -310,7 +310,7 @@
     <t>Diplôme universitaire ou interuniversitaire.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R54-DiplomeUniversiteInterUniversitaire?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R54-DiplomeUniversiteInterUniversitaire/FHIR/TRE-R54-DiplomeUniversiteInterUniversitaire?vs</t>
   </si>
 </sst>
 </file>
@@ -647,7 +647,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="84.41015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="104.68359375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>

--- a/poc-professionnel/ig/StructureDefinition-DiplomeUniversitaire.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DiplomeUniversitaire.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T07:22:51+00:00</t>
+    <t>2025-07-25T07:53:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-DiplomeUniversitaire.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DiplomeUniversitaire.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T07:53:56+00:00</t>
+    <t>2025-07-25T12:35:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-DiplomeUniversitaire.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DiplomeUniversitaire.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:35:19+00:00</t>
+    <t>2025-07-25T12:45:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-DiplomeUniversitaire.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DiplomeUniversitaire.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:45:05+00:00</t>
+    <t>2025-07-25T12:50:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-DiplomeUniversitaire.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DiplomeUniversitaire.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:50:30+00:00</t>
+    <t>2025-07-29T07:08:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-DiplomeUniversitaire.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DiplomeUniversitaire.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="98">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T07:08:53+00:00</t>
+    <t>2025-07-31T13:33:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>En France, un diplôme universitaire (DU) ou interuniversitaire (DIU) est un diplôme délivré par une université française, un grand établissement ou autre établissement public à caractère scientifique, culturel et professionnel, ou plusieurs établissements conjointement, contrairement aux diplômes nationaux qui sont délivrés au nom du ministère. Chaque ordre maintient une liste des DU reconnus.Dans le cadre du modèle, un diplôme universitaire est un type de diplôme. La classe DiplomeUniversitaire est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -236,9 +239,6 @@
   <si>
     <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t>En France, un diplôme universitaire (DU) ou interuniversitaire (DIU) est un diplôme délivré par une université française, un grand établissement ou autre établissement public à caractère scientifique, culturel et professionnel, ou plusieurs établissements conjointement, contrairement aux diplômes nationaux qui sont délivrés au nom du ministère. Chaque ordre maintient une liste des DU reconnus.Dans le cadre du modèle, un diplôme universitaire est un type de diplôme. La classe DiplomeUniversitaire est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
   </si>
   <si>
     <t>Base</t>
@@ -544,39 +544,41 @@
       <c r="A12" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>3</v>
@@ -584,26 +586,26 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -661,112 +663,112 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2">
@@ -778,95 +780,95 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -878,23 +880,23 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K3" t="s" s="2">
         <v>78</v>
@@ -908,26 +910,26 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X3" t="s" s="2">
         <v>80</v>
@@ -937,34 +939,34 @@
         <v>81</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
@@ -976,23 +978,23 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>78</v>
@@ -1006,26 +1008,26 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s" s="2">
         <v>80</v>
@@ -1035,34 +1037,34 @@
         <v>85</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -1074,23 +1076,23 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>88</v>
@@ -1104,65 +1106,65 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -1174,23 +1176,23 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>92</v>
@@ -1204,65 +1206,65 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
@@ -1274,23 +1276,23 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>78</v>
@@ -1304,26 +1306,26 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X7" t="s" s="2">
         <v>80</v>
@@ -1333,34 +1335,34 @@
         <v>97</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/poc-professionnel/ig/StructureDefinition-DiplomeUniversitaire.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DiplomeUniversitaire.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/DiplomeUniversitaire</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/DiplomeUniversitaire</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T13:33:48+00:00</t>
+    <t>2025-10-13T08:05:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,7 +105,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Diplome</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Diplome</t>
   </si>
   <si>
     <t>Abstract</t>
